--- a/Dataset/MSME_Data_Dictionary.xlsx
+++ b/Dataset/MSME_Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\Jupyter Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Credit_Risk_Scoring_MSME_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B7816-B84F-4E47-B0F6-BB44E980E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4C4F53-5924-4CFF-B983-2E17A3C1AB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CBA9AF18-D3EF-409F-A93D-D68C33AF828C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBA9AF18-D3EF-409F-A93D-D68C33AF828C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B0AE75-8821-470B-8F85-5BB0E74D82DF}">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,13 +1141,13 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
